--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.869501675369349</v>
+        <v>14.869501637622704</v>
       </c>
       <c r="C2">
-        <v>19.722430849689118</v>
+        <v>19.722430854246994</v>
       </c>
       <c r="D2">
-        <v>-2.59983441634472</v>
+        <v>-2.5998344528507857</v>
       </c>
       <c r="E2">
-        <v>19.577898755221355</v>
+        <v>19.577898716461249</v>
       </c>
       <c r="F2">
-        <v>-36.745208444572995</v>
+        <v>-36.745208460702344</v>
       </c>
       <c r="G2">
-        <v>29.474940035300961</v>
+        <v>29.474940029020388</v>
       </c>
       <c r="H2">
-        <v>19.128140842179448</v>
+        <v>19.12814080396555</v>
       </c>
       <c r="I2">
-        <v>23.553707752571086</v>
+        <v>23.553707728533141</v>
       </c>
       <c r="J2">
-        <v>29.005480297299073</v>
+        <v>29.005480311678355</v>
       </c>
       <c r="K2">
-        <v>21.226653781294658</v>
+        <v>21.226653771601889</v>
       </c>
       <c r="L2">
-        <v>32.378354853098671</v>
+        <v>32.378354795925702</v>
       </c>
       <c r="M2">
-        <v>18.232728932443479</v>
+        <v>18.232728890051646</v>
       </c>
       <c r="N2">
-        <v>30.97074170975651</v>
+        <v>30.970741650643049</v>
       </c>
       <c r="O2">
-        <v>20.759886781621447</v>
+        <v>20.759886746306279</v>
       </c>
       <c r="P2">
-        <v>15.288802297052428</v>
+        <v>15.288802311399195</v>
       </c>
       <c r="Q2">
-        <v>29.218632692833125</v>
+        <v>29.21863268006615</v>
       </c>
       <c r="R2">
-        <v>16.490162524238826</v>
+        <v>16.490162510701225</v>
       </c>
       <c r="S2">
-        <v>22.761825626045891</v>
+        <v>22.761825616373983</v>
       </c>
       <c r="T2">
-        <v>26.446059908652501</v>
+        <v>26.446059876686036</v>
       </c>
       <c r="U2">
-        <v>35.176743197622102</v>
+        <v>35.17674316842087</v>
       </c>
       <c r="V2">
-        <v>18.237750856087871</v>
+        <v>18.237750844927746</v>
       </c>
       <c r="W2">
-        <v>20.612956171298379</v>
+        <v>20.612956147927946</v>
       </c>
       <c r="X2">
-        <v>28.162149690182531</v>
+        <v>28.16214967374097</v>
       </c>
       <c r="Y2">
-        <v>25.141932901286538</v>
+        <v>25.141932862280356</v>
       </c>
       <c r="Z2">
-        <v>-1.2874012376292967</v>
+        <v>-1.2874012619664938</v>
       </c>
       <c r="AA2">
-        <v>41.657166140402495</v>
+        <v>41.657166076609911</v>
       </c>
       <c r="AB2">
-        <v>24.075588025515174</v>
+        <v>24.075588025402169</v>
       </c>
       <c r="AC2">
-        <v>22.904330845324495</v>
+        <v>22.904330840352856</v>
       </c>
       <c r="AD2">
-        <v>17.504218572704133</v>
+        <v>17.504218526895443</v>
       </c>
       <c r="AE2">
-        <v>-1.8075829120392086</v>
+        <v>-1.8075829143242572</v>
       </c>
       <c r="AF2">
-        <v>23.483148830206659</v>
+        <v>23.483148830146177</v>
       </c>
       <c r="AG2">
-        <v>24.802184648634551</v>
+        <v>24.802184621416728</v>
       </c>
       <c r="AH2">
-        <v>19.607157508990213</v>
+        <v>19.607157497042635</v>
       </c>
       <c r="AI2">
-        <v>39.796225821319808</v>
+        <v>39.79622581259963</v>
       </c>
       <c r="AJ2">
-        <v>15.969994035122227</v>
+        <v>15.969994007171636</v>
       </c>
       <c r="AK2">
-        <v>25.73487172031659</v>
+        <v>25.734871669020094</v>
       </c>
       <c r="AL2">
-        <v>27.078257491393231</v>
+        <v>27.078257453243339</v>
       </c>
       <c r="AM2">
-        <v>25.075792679187657</v>
+        <v>25.075792622961558</v>
       </c>
       <c r="AN2">
-        <v>22.05314899049668</v>
+        <v>22.053148952657494</v>
       </c>
       <c r="AO2">
-        <v>24.976502536514261</v>
+        <v>24.97650250070177</v>
       </c>
       <c r="AP2">
-        <v>27.036703210824669</v>
+        <v>27.036703194999006</v>
       </c>
       <c r="AQ2">
-        <v>22.311430380626291</v>
+        <v>22.311430344313123</v>
       </c>
       <c r="AR2">
-        <v>27.32341824064423</v>
+        <v>27.323418228637536</v>
       </c>
       <c r="AS2">
-        <v>28.833760369369259</v>
+        <v>28.83376035134188</v>
       </c>
       <c r="AT2">
-        <v>25.84199862509135</v>
+        <v>25.841998610129451</v>
       </c>
       <c r="AU2">
-        <v>23.915859926549388</v>
+        <v>23.915859917313469</v>
       </c>
       <c r="AV2">
-        <v>13.082607381839864</v>
+        <v>13.082607366269144</v>
       </c>
       <c r="AW2">
-        <v>23.967736950746712</v>
+        <v>23.967736943209161</v>
       </c>
       <c r="AX2">
-        <v>23.094913550978362</v>
+        <v>23.094913523048717</v>
       </c>
       <c r="AY2">
-        <v>28.446151728220002</v>
+        <v>28.446151713227039</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.747567597426098</v>
+        <v>21.747567613790068</v>
       </c>
       <c r="C3">
-        <v>23.966216910299408</v>
+        <v>23.966216877810609</v>
       </c>
       <c r="D3">
-        <v>30.954417356737423</v>
+        <v>30.954417340656079</v>
       </c>
       <c r="E3">
-        <v>18.581280493033944</v>
+        <v>18.581280483695309</v>
       </c>
       <c r="F3">
-        <v>10.704016229844683</v>
+        <v>10.70401621453658</v>
       </c>
       <c r="G3">
-        <v>25.314368232490722</v>
+        <v>25.314368213302089</v>
       </c>
       <c r="H3">
-        <v>27.392674884097858</v>
+        <v>27.392674845866196</v>
       </c>
       <c r="I3">
-        <v>24.925893850770706</v>
+        <v>24.925893836467878</v>
       </c>
       <c r="J3">
-        <v>29.000904132514876</v>
+        <v>29.000904125936728</v>
       </c>
       <c r="K3">
-        <v>29.479907464050456</v>
+        <v>29.479907428303648</v>
       </c>
       <c r="L3">
-        <v>57.678786682398254</v>
+        <v>57.678786636739972</v>
       </c>
       <c r="M3">
-        <v>17.871980004034185</v>
+        <v>17.871833627650005</v>
       </c>
       <c r="N3">
-        <v>26.714557400052968</v>
+        <v>26.714557361211519</v>
       </c>
       <c r="O3">
-        <v>14.383597393926067</v>
+        <v>14.383597367489955</v>
       </c>
       <c r="P3">
-        <v>27.61215515242958</v>
+        <v>27.612155117149996</v>
       </c>
       <c r="Q3">
-        <v>17.453813285379738</v>
+        <v>17.453813263649465</v>
       </c>
       <c r="R3">
-        <v>20.223741957781385</v>
+        <v>20.223741941097046</v>
       </c>
       <c r="S3">
-        <v>20.737069398283325</v>
+        <v>20.737069382286563</v>
       </c>
       <c r="T3">
-        <v>23.882917716761256</v>
+        <v>23.882917680826836</v>
       </c>
       <c r="U3">
-        <v>20.317686597179033</v>
+        <v>20.317686569691745</v>
       </c>
       <c r="V3">
-        <v>40.28276937801752</v>
+        <v>40.282769358584744</v>
       </c>
       <c r="W3">
-        <v>23.26252484791155</v>
+        <v>23.262524767113121</v>
       </c>
       <c r="X3">
-        <v>20.713107869975545</v>
+        <v>20.713107811655391</v>
       </c>
       <c r="Y3">
-        <v>18.553121992439713</v>
+        <v>18.5531219748691</v>
       </c>
       <c r="Z3">
-        <v>17.593339310039227</v>
+        <v>17.593339291211379</v>
       </c>
       <c r="AA3">
-        <v>35.76898930770966</v>
+        <v>35.768989269695282</v>
       </c>
       <c r="AB3">
-        <v>22.061370260880011</v>
+        <v>22.061370237929225</v>
       </c>
       <c r="AC3">
-        <v>30.170443594002165</v>
+        <v>30.170443563109387</v>
       </c>
       <c r="AD3">
-        <v>22.279978930679022</v>
+        <v>22.279978878060206</v>
       </c>
       <c r="AE3">
-        <v>23.624178197218242</v>
+        <v>23.624178198623241</v>
       </c>
       <c r="AF3">
-        <v>28.658190755128857</v>
+        <v>28.658190727880907</v>
       </c>
       <c r="AG3">
-        <v>32.698123641332074</v>
+        <v>32.69812360779099</v>
       </c>
       <c r="AH3">
-        <v>34.207161459697659</v>
+        <v>34.207161453925551</v>
       </c>
       <c r="AI3">
-        <v>28.734127875004901</v>
+        <v>28.734127823825673</v>
       </c>
       <c r="AJ3">
-        <v>33.706566478879949</v>
+        <v>33.706566430480109</v>
       </c>
       <c r="AK3">
-        <v>49.478771098394105</v>
+        <v>49.478771055998124</v>
       </c>
       <c r="AL3">
-        <v>31.190027007446361</v>
+        <v>31.190026989363503</v>
       </c>
       <c r="AM3">
-        <v>22.238956409991602</v>
+        <v>22.238956366477396</v>
       </c>
       <c r="AN3">
-        <v>13.370671384004311</v>
+        <v>13.370671363699159</v>
       </c>
       <c r="AO3">
-        <v>30.90781193980348</v>
+        <v>30.907811911525698</v>
       </c>
       <c r="AP3">
-        <v>23.667902182401747</v>
+        <v>23.66790214441545</v>
       </c>
       <c r="AQ3">
-        <v>23.706164052207669</v>
+        <v>23.706164044484751</v>
       </c>
       <c r="AR3">
-        <v>29.830134709187291</v>
+        <v>29.830134680075162</v>
       </c>
       <c r="AS3">
-        <v>22.253856358874316</v>
+        <v>22.25385633217752</v>
       </c>
       <c r="AT3">
-        <v>17.422704617663356</v>
+        <v>17.422704595166721</v>
       </c>
       <c r="AU3">
-        <v>27.445862525093901</v>
+        <v>27.44586249883946</v>
       </c>
       <c r="AV3">
-        <v>25.664464608158227</v>
+        <v>25.664464541103513</v>
       </c>
       <c r="AW3">
-        <v>22.397236294069671</v>
+        <v>22.39723627276652</v>
       </c>
       <c r="AX3">
-        <v>21.653871916798835</v>
+        <v>21.653871890606979</v>
       </c>
       <c r="AY3">
-        <v>21.004178086834997</v>
+        <v>21.004178064382074</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>14.869501637622704</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>19.722430854246994</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.5998344528507857</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>19.577898716461249</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-36.745208460702344</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>29.474940029020388</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>19.12814080396555</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>23.553707728533141</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>29.005480311678355</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.226653771601889</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.378354795925702</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18.232728890051646</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>30.970741650643049</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.759886746306279</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>15.288802311399195</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>29.21863268006615</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>16.490162510701225</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>22.761825616373983</v>
+        <v>22.761858946373991</v>
       </c>
       <c r="T2">
         <v>26.446059876686036</v>
@@ -576,147 +465,144 @@
         <v>18.237750844927746</v>
       </c>
       <c r="W2">
-        <v>20.612956147927946</v>
+        <v>20.612989477927954</v>
       </c>
       <c r="X2">
-        <v>28.16214967374097</v>
+        <v>28.162116343740962</v>
       </c>
       <c r="Y2">
         <v>25.141932862280356</v>
       </c>
       <c r="Z2">
-        <v>-1.2874012619664938</v>
+        <v>-1.2874345919665018</v>
       </c>
       <c r="AA2">
-        <v>41.657166076609911</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.075588025402169</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>22.904330840352856</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>17.504218526895443</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-1.8075829143242572</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23.483148830146177</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>24.802184621416728</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>19.607157497042635</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>39.79622581259963</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>15.969994007171636</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>25.734871669020094</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>27.078257453243339</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>25.075792622961558</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>22.053148952657494</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>24.97650250070177</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>27.036703194999006</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>22.311430344313123</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>27.323418228637536</v>
+        <v>27.323384898637528</v>
       </c>
       <c r="AS2">
         <v>28.83376035134188</v>
       </c>
       <c r="AT2">
-        <v>25.841998610129451</v>
+        <v>25.842031940129459</v>
       </c>
       <c r="AU2">
-        <v>23.915859917313469</v>
+        <v>23.915826587313461</v>
       </c>
       <c r="AV2">
-        <v>13.082607366269144</v>
+        <v>13.082640696269152</v>
       </c>
       <c r="AW2">
-        <v>23.967736943209161</v>
+        <v>23.967703613209153</v>
       </c>
       <c r="AX2">
-        <v>23.094913523048717</v>
+        <v>23.094880193048709</v>
       </c>
       <c r="AY2">
-        <v>28.446151713227039</v>
+        <v>28.446118383227031</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.747567613790068</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>23.966216877810609</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>30.954417340656079</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>18.581280483695309</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.70401621453658</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>25.314368213302089</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>27.392674845866196</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>24.925893836467878</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>29.000904125936728</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.479907428303648</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.678786636739972</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>17.871833627650005</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>26.714557361211519</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.383597367489955</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>27.612155117149996</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.453813263649465</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>20.223741941097046</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>20.737069382286563</v>
@@ -728,94 +614,94 @@
         <v>20.317686569691745</v>
       </c>
       <c r="V3">
-        <v>40.282769358584744</v>
+        <v>40.282736028584736</v>
       </c>
       <c r="W3">
-        <v>23.262524767113121</v>
+        <v>23.262491437113141</v>
       </c>
       <c r="X3">
-        <v>20.713107811655391</v>
+        <v>20.713141141655399</v>
       </c>
       <c r="Y3">
-        <v>18.5531219748691</v>
+        <v>44.583155304869109</v>
       </c>
       <c r="Z3">
-        <v>17.593339291211379</v>
+        <v>23.036705961211396</v>
       </c>
       <c r="AA3">
-        <v>35.768989269695282</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>22.061370237929225</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>30.170443563109387</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>22.279978878060206</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>23.624178198623241</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>28.658190727880907</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>32.69812360779099</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>34.207161453925551</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>28.734127823825673</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>33.706566430480109</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>49.478771055998124</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>31.190026989363503</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>22.238956366477396</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>13.370671363699159</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>30.907811911525698</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>23.66790214441545</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>23.706164044484751</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>29.830134680075162</v>
+        <v>29.830168010075113</v>
       </c>
       <c r="AS3">
-        <v>22.25385633217752</v>
+        <v>22.253823002177512</v>
       </c>
       <c r="AT3">
         <v>17.422704595166721</v>
       </c>
       <c r="AU3">
-        <v>27.44586249883946</v>
+        <v>27.445829168839452</v>
       </c>
       <c r="AV3">
-        <v>25.664464541103513</v>
+        <v>25.664431211103505</v>
       </c>
       <c r="AW3">
         <v>22.39723627276652</v>
       </c>
       <c r="AX3">
-        <v>21.653871890606979</v>
+        <v>25.827171890606991</v>
       </c>
       <c r="AY3">
-        <v>21.004178064382074</v>
+        <v>63.424144734382082</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.869535005369357</v>
+        <v>20.759853416306271</v>
       </c>
       <c r="C2">
-        <v>26.029097519689117</v>
+        <v>16.490162510701225</v>
       </c>
       <c r="D2">
-        <v>-2.5998677463447279</v>
+        <v>22.053182282657474</v>
       </c>
       <c r="E2">
-        <v>19.577932085221363</v>
+        <v>22.311463674313131</v>
       </c>
       <c r="F2">
         <v>-36.745208444572995</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.747567597426098</v>
+        <v>14.383597367489955</v>
       </c>
       <c r="C3">
-        <v>31.852916910299427</v>
+        <v>20.223775271097054</v>
       </c>
       <c r="D3">
-        <v>30.954450686737431</v>
+        <v>13.370704693699167</v>
       </c>
       <c r="E3">
-        <v>18.581247163033964</v>
+        <v>23.734676842306442</v>
       </c>
       <c r="F3">
         <v>10.704016229844683</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.869535005369357</v>
+        <v>13.754862395879627</v>
       </c>
       <c r="C2">
-        <v>26.029097519689117</v>
+        <v>23.930203404678309</v>
       </c>
       <c r="D2">
-        <v>-2.5998677463447279</v>
+        <v>31.111403430960763</v>
       </c>
       <c r="E2">
-        <v>19.577932085221363</v>
+        <v>24.797060122536578</v>
       </c>
       <c r="F2">
         <v>-36.745208444572995</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.747567597426098</v>
+        <v>10.911190691211516</v>
       </c>
       <c r="C3">
-        <v>31.852916910299427</v>
+        <v>14.383597367489955</v>
       </c>
       <c r="D3">
-        <v>30.954450686737431</v>
+        <v>39.34895636647741</v>
       </c>
       <c r="E3">
-        <v>18.581247163033964</v>
+        <v>13.370704693699167</v>
       </c>
       <c r="F3">
         <v>10.704016229844683</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>15.142604349899329</v>
+      </c>
+      <c r="C2">
+        <v>26.029097524246993</v>
+      </c>
+      <c r="D2">
+        <v>-0.16320851366251077</v>
+      </c>
+      <c r="E2">
+        <v>23.093460809150457</v>
+      </c>
+      <c r="F2">
+        <v>-36.745208460702344</v>
+      </c>
+      <c r="G2">
+        <v>29.474973359020396</v>
+      </c>
+      <c r="H2">
+        <v>19.654870938860171</v>
+      </c>
+      <c r="I2">
+        <v>24.722519286325735</v>
+      </c>
+      <c r="J2">
+        <v>29.042765930822725</v>
+      </c>
+      <c r="K2">
+        <v>43.728069245158963</v>
+      </c>
+      <c r="L2">
+        <v>35.181538704925288</v>
+      </c>
+      <c r="M2">
+        <v>18.232728890051646</v>
+      </c>
+      <c r="N2">
         <v>13.754862395879627</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>23.930203404678309</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>15.288802311399195</v>
+      </c>
+      <c r="Q2">
+        <v>54.561999350066174</v>
+      </c>
+      <c r="R2">
+        <v>16.490162510701225</v>
+      </c>
+      <c r="S2">
+        <v>23.4228507693702</v>
+      </c>
+      <c r="T2">
+        <v>26.446059876686036</v>
+      </c>
+      <c r="U2">
+        <v>35.923218800070515</v>
+      </c>
+      <c r="V2">
+        <v>20.495305414294648</v>
+      </c>
+      <c r="W2">
+        <v>23.659732653058484</v>
+      </c>
+      <c r="X2">
+        <v>29.476570978134788</v>
+      </c>
+      <c r="Y2">
+        <v>25.586544596038465</v>
+      </c>
+      <c r="Z2">
+        <v>-1.2874345919665018</v>
+      </c>
+      <c r="AA2">
+        <v>42.065250116260358</v>
+      </c>
+      <c r="AB2">
+        <v>14.615554695402182</v>
+      </c>
+      <c r="AC2">
+        <v>25.013288956607823</v>
+      </c>
+      <c r="AD2">
+        <v>20.621294954593651</v>
+      </c>
+      <c r="AE2">
+        <v>-1.8075829143242572</v>
+      </c>
+      <c r="AF2">
+        <v>23.483115500146198</v>
+      </c>
+      <c r="AG2">
+        <v>25.240337258433726</v>
+      </c>
+      <c r="AH2">
+        <v>20.172166549599183</v>
+      </c>
+      <c r="AI2">
+        <v>39.883626971887026</v>
+      </c>
+      <c r="AJ2">
+        <v>19.85732762919119</v>
+      </c>
+      <c r="AK2">
+        <v>27.67970852561524</v>
+      </c>
+      <c r="AL2">
+        <v>27.078224123243331</v>
+      </c>
+      <c r="AM2">
         <v>31.111403430960763</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>24.797060122536578</v>
       </c>
-      <c r="F2">
-        <v>-36.745208444572995</v>
-      </c>
-      <c r="G2">
-        <v>29.474973365300968</v>
-      </c>
-      <c r="H2">
-        <v>19.128140842179448</v>
-      </c>
-      <c r="I2">
-        <v>23.553674422571078</v>
-      </c>
-      <c r="J2">
-        <v>29.005513627299081</v>
-      </c>
-      <c r="K2">
-        <v>42.269987111294654</v>
-      </c>
-      <c r="L2">
-        <v>32.378388183098679</v>
-      </c>
-      <c r="M2">
-        <v>18.232728932443479</v>
-      </c>
-      <c r="N2">
-        <v>11.584108379756515</v>
-      </c>
-      <c r="O2">
-        <v>20.759853451621439</v>
-      </c>
-      <c r="P2">
-        <v>15.288802297052428</v>
-      </c>
-      <c r="Q2">
-        <v>54.561999362833149</v>
-      </c>
-      <c r="R2">
-        <v>16.490162524238826</v>
-      </c>
-      <c r="S2">
-        <v>22.761858956045899</v>
-      </c>
-      <c r="T2">
-        <v>26.446059908652501</v>
-      </c>
-      <c r="U2">
-        <v>35.176743197622102</v>
-      </c>
-      <c r="V2">
-        <v>18.237750856087871</v>
-      </c>
-      <c r="W2">
-        <v>20.623011342136522</v>
-      </c>
-      <c r="X2">
-        <v>28.162116360182523</v>
-      </c>
-      <c r="Y2">
-        <v>25.141932901286538</v>
-      </c>
-      <c r="Z2">
-        <v>-1.2874345676293046</v>
-      </c>
-      <c r="AA2">
-        <v>41.657199470402475</v>
-      </c>
-      <c r="AB2">
-        <v>14.615554695515186</v>
-      </c>
-      <c r="AC2">
-        <v>22.904297515324487</v>
-      </c>
-      <c r="AD2">
-        <v>17.504185242704153</v>
-      </c>
-      <c r="AE2">
-        <v>-1.8075829120392086</v>
-      </c>
-      <c r="AF2">
-        <v>23.483115500206679</v>
-      </c>
-      <c r="AG2">
-        <v>24.802217978634559</v>
-      </c>
-      <c r="AH2">
-        <v>19.607124178990205</v>
-      </c>
-      <c r="AI2">
-        <v>39.796225821319808</v>
-      </c>
-      <c r="AJ2">
-        <v>17.759960705122239</v>
-      </c>
-      <c r="AK2">
-        <v>25.73487172031659</v>
-      </c>
-      <c r="AL2">
-        <v>27.078224161393223</v>
-      </c>
-      <c r="AM2">
-        <v>29.295792679187684</v>
-      </c>
-      <c r="AN2">
-        <v>22.05318232049666</v>
-      </c>
       <c r="AO2">
-        <v>24.976469206514253</v>
+        <v>24.976469170701762</v>
       </c>
       <c r="AP2">
-        <v>27.036703210824669</v>
+        <v>27.036703194999006</v>
       </c>
       <c r="AQ2">
-        <v>22.311463710626299</v>
+        <v>22.311463674313131</v>
       </c>
       <c r="AR2">
-        <v>27.323384910644222</v>
+        <v>27.293673377990558</v>
       </c>
       <c r="AS2">
-        <v>28.833760369369259</v>
+        <v>28.83376035134188</v>
       </c>
       <c r="AT2">
-        <v>25.842031955091358</v>
+        <v>26.624706679644845</v>
       </c>
       <c r="AU2">
-        <v>23.91582659654938</v>
+        <v>25.162454183216084</v>
       </c>
       <c r="AV2">
-        <v>13.090067947336934</v>
+        <v>16.042892252658817</v>
       </c>
       <c r="AW2">
-        <v>23.967703620746704</v>
+        <v>24.916923228482233</v>
       </c>
       <c r="AX2">
-        <v>23.094880220978354</v>
+        <v>23.662689578119938</v>
       </c>
       <c r="AY2">
-        <v>28.446118398219994</v>
+        <v>28.446118383227031</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>21.747567613790068</v>
+      </c>
+      <c r="C3">
+        <v>33.237848936919079</v>
+      </c>
+      <c r="D3">
+        <v>30.954450670656087</v>
+      </c>
+      <c r="E3">
+        <v>18.58124715369533</v>
+      </c>
+      <c r="F3">
+        <v>11.442114680281065</v>
+      </c>
+      <c r="G3">
+        <v>26.169933724955598</v>
+      </c>
+      <c r="H3">
+        <v>27.392641515866217</v>
+      </c>
+      <c r="I3">
+        <v>24.92586050646787</v>
+      </c>
+      <c r="J3">
+        <v>41.760904125936747</v>
+      </c>
+      <c r="K3">
+        <v>29.479907428303648</v>
+      </c>
+      <c r="L3">
+        <v>57.678786636739972</v>
+      </c>
+      <c r="M3">
+        <v>19.105101815823161</v>
+      </c>
+      <c r="N3">
         <v>10.911190691211516</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>14.383597367489955</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>28.07151958811636</v>
+      </c>
+      <c r="Q3">
+        <v>18.087007440988202</v>
+      </c>
+      <c r="R3">
+        <v>22.085041948527703</v>
+      </c>
+      <c r="S3">
+        <v>20.737069382286563</v>
+      </c>
+      <c r="T3">
+        <v>24.727865196945686</v>
+      </c>
+      <c r="U3">
+        <v>20.317686569691745</v>
+      </c>
+      <c r="V3">
+        <v>40.282736028584736</v>
+      </c>
+      <c r="W3">
+        <v>23.301159798859004</v>
+      </c>
+      <c r="X3">
+        <v>20.713141141655399</v>
+      </c>
+      <c r="Y3">
+        <v>44.583155304869109</v>
+      </c>
+      <c r="Z3">
+        <v>23.231992981108874</v>
+      </c>
+      <c r="AA3">
+        <v>35.768955939695275</v>
+      </c>
+      <c r="AB3">
+        <v>23.260589730122206</v>
+      </c>
+      <c r="AC3">
+        <v>30.170476893109395</v>
+      </c>
+      <c r="AD3">
+        <v>22.279945548060198</v>
+      </c>
+      <c r="AE3">
+        <v>23.656112985306123</v>
+      </c>
+      <c r="AF3">
+        <v>29.345984282193996</v>
+      </c>
+      <c r="AG3">
+        <v>32.69812360779099</v>
+      </c>
+      <c r="AH3">
+        <v>34.205337729896826</v>
+      </c>
+      <c r="AI3">
+        <v>31.674094493825663</v>
+      </c>
+      <c r="AJ3">
+        <v>33.706566430480109</v>
+      </c>
+      <c r="AK3">
+        <v>49.478804385998131</v>
+      </c>
+      <c r="AL3">
+        <v>32.718935239206417</v>
+      </c>
+      <c r="AM3">
         <v>39.34895636647741</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>13.370704693699167</v>
       </c>
-      <c r="F3">
-        <v>10.704016229844683</v>
-      </c>
-      <c r="G3">
-        <v>25.314334902490742</v>
-      </c>
-      <c r="H3">
-        <v>27.392641554097878</v>
-      </c>
-      <c r="I3">
-        <v>24.925860520770698</v>
-      </c>
-      <c r="J3">
-        <v>41.760904132514895</v>
-      </c>
-      <c r="K3">
-        <v>29.479907464050456</v>
-      </c>
-      <c r="L3">
-        <v>57.678786682398254</v>
-      </c>
-      <c r="M3">
-        <v>17.872013334034193</v>
-      </c>
-      <c r="N3">
-        <v>10.911190730052965</v>
-      </c>
-      <c r="O3">
-        <v>14.383597393926067</v>
-      </c>
-      <c r="P3">
-        <v>27.61215515242958</v>
-      </c>
-      <c r="Q3">
-        <v>17.45377995537973</v>
-      </c>
-      <c r="R3">
-        <v>20.223775287781393</v>
-      </c>
-      <c r="S3">
-        <v>20.737069398283325</v>
-      </c>
-      <c r="T3">
-        <v>23.882917716761256</v>
-      </c>
-      <c r="U3">
-        <v>20.317686597179033</v>
-      </c>
-      <c r="V3">
-        <v>40.282736048017512</v>
-      </c>
-      <c r="W3">
-        <v>23.301159864759853</v>
-      </c>
-      <c r="X3">
-        <v>20.713141199975553</v>
-      </c>
-      <c r="Y3">
-        <v>44.583155322439723</v>
-      </c>
-      <c r="Z3">
-        <v>23.036705980039244</v>
-      </c>
-      <c r="AA3">
-        <v>35.768955977709652</v>
-      </c>
-      <c r="AB3">
-        <v>22.531336930880002</v>
-      </c>
-      <c r="AC3">
-        <v>30.170476924002173</v>
-      </c>
-      <c r="AD3">
-        <v>22.279945600679014</v>
-      </c>
-      <c r="AE3">
-        <v>23.624144867218234</v>
-      </c>
-      <c r="AF3">
-        <v>28.658190755128857</v>
-      </c>
-      <c r="AG3">
-        <v>32.698123641332074</v>
-      </c>
-      <c r="AH3">
-        <v>34.205337725412278</v>
-      </c>
-      <c r="AI3">
-        <v>31.674094545004891</v>
-      </c>
-      <c r="AJ3">
-        <v>33.706566478879949</v>
-      </c>
-      <c r="AK3">
-        <v>49.478804428394113</v>
-      </c>
-      <c r="AL3">
-        <v>31.190027007446361</v>
-      </c>
-      <c r="AM3">
-        <v>39.348956409991615</v>
-      </c>
-      <c r="AN3">
-        <v>13.370704714004319</v>
-      </c>
       <c r="AO3">
-        <v>30.907845269803488</v>
+        <v>31.480701548061234</v>
       </c>
       <c r="AP3">
-        <v>23.667868852401739</v>
+        <v>24.267939355440944</v>
       </c>
       <c r="AQ3">
-        <v>23.734676844439491</v>
+        <v>24.66254717183233</v>
       </c>
       <c r="AR3">
-        <v>29.830168039187242</v>
+        <v>29.830168010075113</v>
       </c>
       <c r="AS3">
-        <v>22.253823028874308</v>
+        <v>22.734216295028943</v>
       </c>
       <c r="AT3">
-        <v>17.422704617663356</v>
+        <v>17.422704595166721</v>
       </c>
       <c r="AU3">
-        <v>27.445829195093893</v>
+        <v>27.445829168839452</v>
       </c>
       <c r="AV3">
-        <v>25.69470428777484</v>
+        <v>25.694704220039029</v>
       </c>
       <c r="AW3">
-        <v>22.397236294069671</v>
+        <v>22.39723627276652</v>
       </c>
       <c r="AX3">
-        <v>25.827171916798846</v>
+        <v>25.827171890606991</v>
       </c>
       <c r="AY3">
-        <v>63.424144756835005</v>
+        <v>63.651825986417975</v>
       </c>
     </row>
   </sheetData>
